--- a/data/trans_dic/P16A20_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A20_2023-Provincia-trans_dic.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,63</t>
+          <t>0,55; 3,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,41</t>
+          <t>4,7; 9,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,1; 5,89</t>
+          <t>3,12; 5,94</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,3</t>
+          <t>0,37; 2,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 8,38</t>
+          <t>4,42; 8,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,23</t>
+          <t>2,79; 5,15</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,13</t>
+          <t>0,6; 3,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 9,92</t>
+          <t>5,31; 9,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,29</t>
+          <t>3,52; 6,24</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,3</t>
+          <t>0,0; 1,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,64; 10,23</t>
+          <t>5,84; 10,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,1</t>
+          <t>3,5; 6,04</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 7,11</t>
+          <t>0,73; 7,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,63; 11,65</t>
+          <t>6,33; 11,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,41; 7,99</t>
+          <t>4,26; 8,1</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,17</t>
+          <t>0,19; 2,09</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,45; 13,13</t>
+          <t>7,88; 13,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,25; 6,91</t>
+          <t>4,1; 6,93</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,03</t>
+          <t>0,93; 3,9</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,17; 53,72</t>
+          <t>10,96; 56,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,55; 35,33</t>
+          <t>6,5; 37,19</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,34</t>
+          <t>0,77; 2,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,89; 10,52</t>
+          <t>5,99; 10,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,56; 6,01</t>
+          <t>3,57; 6,11</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,9</t>
+          <t>1,04; 1,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,15; 20,7</t>
+          <t>8,09; 22,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>4,91; 13,17</t>
+          <t>4,87; 13,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A20_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A20_2023-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A20_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A20_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,55</t>
+          <t>0,6; 3,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,7; 9,67</t>
+          <t>4,83; 9,41</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,12; 5,94</t>
+          <t>3,1; 5,89</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,62</t>
+          <t>0,36; 2,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 8,32</t>
+          <t>4,61; 8,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,15</t>
+          <t>2,81; 5,23</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,32</t>
+          <t>0,54; 3,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,31; 9,9</t>
+          <t>5,63; 9,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 6,24</t>
+          <t>3,58; 6,29</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,31</t>
+          <t>0,0; 1,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,84; 10,32</t>
+          <t>5,64; 10,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,5; 6,04</t>
+          <t>3,41; 6,1</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 7,3</t>
+          <t>0,4; 7,11</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,33; 11,76</t>
+          <t>6,63; 11,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,26; 8,1</t>
+          <t>4,41; 7,99</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,09</t>
+          <t>0,19; 2,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,88; 13,24</t>
+          <t>7,45; 13,13</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,1; 6,93</t>
+          <t>4,25; 6,91</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,9</t>
+          <t>0,95; 4,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>10,96; 56,36</t>
+          <t>11,17; 53,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,5; 37,19</t>
+          <t>6,55; 35,33</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,32</t>
+          <t>0,72; 2,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,99; 10,4</t>
+          <t>5,89; 10,52</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,57; 6,11</t>
+          <t>3,56; 6,01</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,04; 1,9</t>
+          <t>1,0; 1,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,09; 22,35</t>
+          <t>8,15; 20,7</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>4,87; 13,11</t>
+          <t>4,91; 13,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A20_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A20_2023-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,05%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 1,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,63</t>
+          <t>0,57; 3,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 3,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,41</t>
+          <t>4,74; 9,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 1,07</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,1; 5,89</t>
+          <t>2,92; 5,66</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>3,65%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,3</t>
+          <t>0,34; 2,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,61; 8,38</t>
+          <t>4,6; 8,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,23</t>
+          <t>2,7; 5,05</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>7,4%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,56%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,13</t>
+          <t>0,52; 3,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 9,92</t>
+          <t>5,62; 9,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,29</t>
+          <t>3,5; 6,14</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>4,04%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>0; 1,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,27</t>
+          <t>0; 2,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,64; 10,23</t>
+          <t>3,8; 8,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0; 0,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,1</t>
+          <t>2,77; 5,48</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>5,92%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 7,11</t>
+          <t>0,39; 6,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,63; 11,65</t>
+          <t>6,72; 11,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,41; 7,99</t>
+          <t>4,44; 7,95</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>10,12%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,35%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,17</t>
+          <t>0,19; 2,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,45; 13,13</t>
+          <t>7,48; 13,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,25; 6,91</t>
+          <t>4,17; 6,8</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>23,83%</t>
+          <t>32,88%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>14,24%</t>
+          <t>19,78%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 4,03</t>
+          <t>0,94; 4,33</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,17; 53,72</t>
+          <t>11,03; 68,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,55; 35,33</t>
+          <t>6,36; 49,1</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>3,94%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,34</t>
+          <t>0,32; 1,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,89; 10,52</t>
+          <t>5,9; 10,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,56; 6,01</t>
+          <t>2,48; 5,29</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>13,3%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>7,47%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,9</t>
+          <t>0,89; 1,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,15; 20,7</t>
+          <t>7,91; 29,35</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>4,91; 13,17</t>
+          <t>4,57; 19,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A20_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A20_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -739,7 +740,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,51</t>
+          <t>0,59; 3,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +760,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,74; 9,55</t>
+          <t>4,85; 9,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +780,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,92; 5,66</t>
+          <t>2,96; 5,58</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -879,7 +880,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,23</t>
+          <t>0,43; 2,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +900,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,6; 8,32</t>
+          <t>4,47; 8,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +920,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,7; 5,05</t>
+          <t>2,65; 4,87</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1019,7 +1020,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 3,01</t>
+          <t>0,5; 2,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1040,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,62; 9,91</t>
+          <t>5,37; 9,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1060,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,5; 6,14</t>
+          <t>3,37; 6,18</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1160,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,3</t>
+          <t>0,0; 1,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1180,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 8,84</t>
+          <t>3,72; 8,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1200,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,48</t>
+          <t>2,78; 5,43</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1300,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 6,73</t>
+          <t>0,71; 6,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1320,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,72; 11,76</t>
+          <t>6,53; 11,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1340,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,44; 7,95</t>
+          <t>4,39; 8,12</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1439,7 +1440,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,19; 2,12</t>
+          <t>0,18; 2,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1460,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,48; 13,17</t>
+          <t>7,53; 12,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,14 +1480,14 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,17; 6,8</t>
+          <t>4,23; 7,03</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1579,7 +1580,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,33</t>
+          <t>0,99; 4,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1600,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,03; 68,19</t>
+          <t>11,23; 66,75</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1620,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,36; 49,1</t>
+          <t>6,42; 48,66</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1720,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,93</t>
+          <t>0,42; 1,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1740,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,9; 10,19</t>
+          <t>5,99; 10,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1760,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,29</t>
+          <t>2,5; 5,18</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1860,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,89; 1,82</t>
+          <t>0,89; 1,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1880,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,91; 29,35</t>
+          <t>7,89; 28,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1900,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>4,57; 19,17</t>
+          <t>4,55; 17,33</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicamentos para la alteración del tiroides últimas 2 semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4963</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19378</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>24341</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1966</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1968</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2142</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1827; 11550</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2095</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2161</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1939</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>14035; 28492</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2024</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2064</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17796; 33534</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5439</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>32218</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>37656</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2025</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1987</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2021</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2227; 13007</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1921</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2021</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1981</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>22989; 43598</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1986</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2006</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2011</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>27349; 50187</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4497</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>25819</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>30316</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1999</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1869</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1821</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1573; 9332</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1890</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2051</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1836</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18753; 34445</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1963</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1939</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0; 1835</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22426; 41110</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1165</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>30681</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>31846</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1941</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2026</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2018</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 3650</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1836</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1998</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1909</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>17718; 41976</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1902</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>0; 2025</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0; 1983</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>21939; 42797</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4495</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>18432</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>22927</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1923</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2043</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1885</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1272; 12297</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1969</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1874</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1796</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>13593; 24194</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1955</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0; 2009</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0; 1860</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>16995; 31428</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2080</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>26108</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>28188</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1984</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1979</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1955</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>484; 6037</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1945</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1923</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1857</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>19350; 33393</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1979</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1973</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1923</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>22279; 37039</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>12327</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>279061</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>291388</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2009</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2023</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2176</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>6172; 26497</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2004</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2069</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>0; 1958</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>95298; 566469</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2011</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2047</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0; 2075</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>94573; 716659</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>10159</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>54555</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>64714</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1961</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2041</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2015</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>3871; 17932</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1989</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2082</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2002</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>42842; 72522</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>0; 1977</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2062</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>0; 2013</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>41011; 85123</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>45124</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>486253</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>531377</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1991</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2013</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2032</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>30900; 62529</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1969</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2064</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1948</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>288444; 1032918</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1982</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>0; 2033</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>0; 1997</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>323603; 1233134</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>